--- a/doc/神作手游版文档/副本机制设计（6-5）.xlsx
+++ b/doc/神作手游版文档/副本机制设计（6-5）.xlsx
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体力上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每次进入副本消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +210,10 @@
   </si>
   <si>
     <t>（基础逻辑已实现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +367,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>584900</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>40</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -397,23 +397,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1035,7 +1022,7 @@
   <dimension ref="B2:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1279,18 +1266,18 @@
         <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C34" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
@@ -1301,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">

--- a/doc/神作手游版文档/副本机制设计（6-5）.xlsx
+++ b/doc/神作手游版文档/副本机制设计（6-5）.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1334,13 +1334,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -1359,7 +1360,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
